--- a/Artikkelit.xlsx
+++ b/Artikkelit.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Artikkeli</t>
   </si>
@@ -19,9 +19,6 @@
     <t>Hyödyllisyys</t>
   </si>
   <si>
-    <t>Luettavuus</t>
-  </si>
-  <si>
     <t>Sisältö lyhyesti</t>
   </si>
   <si>
@@ -43,9 +40,6 @@
     <t>Käy todella hyvin CA asioita läpi ja yhdistää sitä ohjelmointiin 5/5</t>
   </si>
   <si>
-    <t>Etenee hyvin ja siitä ymmärtää sanoman hyvin 4/5</t>
-  </si>
-  <si>
     <t>Käy läpi kuinka CAn eri ominaisuuksia hyödynnetään Carnegie Mellonin yliopiston yläkoululaisten robo-ohjelmointileirillä. Leirillä lapset tekivät LEGO Mindstorm roboja ja yrittivät ratkoa niiden avulla avaruusteemaisia ongelmia. Selitetään miten CA opetuksessa on toiminut heillä.</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
     <t>Käy läpi kuinka tieteellistätekstiä kannattaisi kirjoittaa 2/5</t>
   </si>
   <si>
-    <t>Vaikeaa luettavaa ja ymmärrettävää - sanoma vaikeasti saatavissa 1/5</t>
-  </si>
-  <si>
     <t>Käy läpi kuinka tieteellisiä julkaisuja pitäisi tehdä, kuinka he julkaisevat tieteellisenlehtensä SciJourn (joka suunnattu nuorille). Kertoo myös kuinka he opettavat kirjoittamista eteenpäin CA:n keinoin.</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t>Käsittelee kuinka Carnegie Mellonin yliopistolla eri asioita pyritään opettamaan valmentamalla CA näkökulmasta 3/5</t>
   </si>
   <si>
-    <t>Melko helppoa luettavaa ja oleelliset asiat saa hyvin irti 3/5</t>
-  </si>
-  <si>
     <t>Kertoo kuinka opettaja valmentaa Carnegie Mellonin yliopistolla CAn näkökulmasta. Miten opettamisessa pitäisi hyödyntää erilaisia CAn ominaisuuksia. Ideaalisen valmentajan/opettajan ominaisuudet.</t>
   </si>
   <si>
@@ -107,6 +95,45 @@
   </si>
   <si>
     <t>E = effective, I = ineffective, N = neutral -- Kysely tehty 2009 oppilailla ja kysytty miten opetus on toiminut verrattuna muihin yliopistoihin. Techical skills: 65% E, 19% N, 16I -- Business skills: 82% E, 11% N, 7% I -- Professional skills: 88% E, 9% N, 3% I -- (116/375 henkilöstä vastasi kyselyyn) </t>
+  </si>
+  <si>
+    <t>Instructional Design of a Programming Course -- A Learning Theoretic Approach</t>
+  </si>
+  <si>
+    <t>Käsittelee ohjelmoinnin opettamista muun muossa CA:ta käyttäen Aarhusin yliopistolla 5/5</t>
+  </si>
+  <si>
+    <t>Kertoo kolmesta eri opetustekniikasta ohjelmoinnissa (cognitive load theory, CA, worked examples). Selitetään miten kutakin voi hyödyntää ohjelmoinnin opettamiseen ja kerrotaan miten Aarhusin yliopistolla näitä on hyödynnetty opetuksessa.</t>
+  </si>
+  <si>
+    <t>Käy todella hyvin erilaisia opetustekniikoita läpi ja selitetään miten niitä konkreettisesti opetuksessa ja materiaaleja suunniteltaessa voidaan hyödyntää</t>
+  </si>
+  <si>
+    <t>Guidance-fading negatiivinen vaikutus henkilöille, jotka jo omaksuneet expertisen. </t>
+  </si>
+  <si>
+    <t>400 oppilasta per vuosi, Aarhuusin yliopisto, Tanska, opetusmenetelmät olleet käytössä yli 4 vuotta kyseisessä yliopistossa</t>
+  </si>
+  <si>
+    <t>Ei ole kunnon tuloksia, mutta toiminut hyvin. Pitäisi tehdä kontrolloituja testejä tulosten muodostamiseen.</t>
+  </si>
+  <si>
+    <t>Helping Novice Programming Students Succeed</t>
+  </si>
+  <si>
+    <t>Käsittelee ohjelmoinnin opettamista käyttäen CA:ta, University of New Mexico, Valencia Campus 5/5</t>
+  </si>
+  <si>
+    <t>Kertoo aluksi pääpiirteittäin mitä on CA ja tämän jälkeen syventyy siihen, miten CA:ta voidaan hyödyntää ohjelmoinnin opettamiseen</t>
+  </si>
+  <si>
+    <t>Käy läpi oleellista asiaa, CA:n pääpiirteittäin ja miten sitä voi hyödyntää ohjelmoinnin opettamisessa</t>
+  </si>
+  <si>
+    <t>2006, University of New Mexico, Valencia Campus</t>
+  </si>
+  <si>
+    <t>Ei tuloksia, aikoivat juuri ottaa käyttöön CA:n ohjelmoinnin opetuksessa</t>
   </si>
 </sst>
 </file>
@@ -178,8 +205,8 @@
   <cols>
     <col min="1" customWidth="1" max="1" width="30.43"/>
     <col min="2" customWidth="1" max="2" width="28.29"/>
-    <col min="3" customWidth="1" max="3" width="21.71"/>
-    <col min="4" customWidth="1" max="4" width="43.29"/>
+    <col min="3" customWidth="1" max="3" width="55.14"/>
+    <col min="4" customWidth="1" max="4" width="34.43"/>
     <col min="5" customWidth="1" max="5" width="23.29"/>
     <col min="6" customWidth="1" max="6" width="32.14"/>
     <col min="7" customWidth="1" max="7" width="29.86"/>
@@ -208,86 +235,120 @@
       <c t="s" s="1" r="G4">
         <v>6</v>
       </c>
-      <c t="s" s="1" r="H4">
-        <v>7</v>
-      </c>
     </row>
     <row r="6">
       <c t="s" r="A6">
+        <v>7</v>
+      </c>
+      <c t="s" r="B6">
         <v>8</v>
       </c>
-      <c t="s" r="B6">
+      <c t="s" r="C6">
         <v>9</v>
       </c>
-      <c t="s" r="C6">
+      <c t="s" r="D6">
         <v>10</v>
       </c>
-      <c t="s" r="D6">
+      <c t="s" r="E6">
         <v>11</v>
       </c>
-      <c t="s" r="E6">
+      <c t="s" r="F6">
         <v>12</v>
       </c>
-      <c t="s" r="F6">
+      <c t="s" r="G6">
         <v>13</v>
-      </c>
-      <c t="s" r="G6">
-        <v>14</v>
-      </c>
-      <c t="s" r="H6">
-        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c t="s" r="A8">
+        <v>14</v>
+      </c>
+      <c t="s" r="B8">
+        <v>15</v>
+      </c>
+      <c t="s" r="C8">
         <v>16</v>
       </c>
-      <c t="s" r="B8">
+      <c t="s" r="D8">
         <v>17</v>
       </c>
-      <c t="s" r="C8">
+      <c t="s" r="E8">
         <v>18</v>
       </c>
-      <c t="s" r="D8">
+      <c t="s" r="F8">
         <v>19</v>
       </c>
-      <c t="s" r="E8">
+      <c t="s" r="G8">
         <v>20</v>
-      </c>
-      <c t="s" r="F8">
-        <v>21</v>
-      </c>
-      <c t="s" r="G8">
-        <v>22</v>
-      </c>
-      <c t="s" r="H8">
-        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c t="s" r="A10">
+        <v>21</v>
+      </c>
+      <c t="s" r="B10">
+        <v>22</v>
+      </c>
+      <c t="s" r="C10">
+        <v>23</v>
+      </c>
+      <c t="s" r="D10">
         <v>24</v>
       </c>
-      <c t="s" r="B10">
+      <c t="s" r="E10">
         <v>25</v>
       </c>
-      <c t="s" r="C10">
+      <c t="s" r="F10">
         <v>26</v>
       </c>
-      <c t="s" r="D10">
+      <c t="s" r="G10">
         <v>27</v>
       </c>
-      <c t="s" r="E10">
+    </row>
+    <row r="12">
+      <c t="s" r="A12">
         <v>28</v>
       </c>
-      <c t="s" r="F10">
+      <c t="s" r="B12">
         <v>29</v>
       </c>
-      <c t="s" r="G10">
+      <c t="s" r="C12">
         <v>30</v>
       </c>
-      <c t="s" r="H10">
+      <c t="s" r="D12">
         <v>31</v>
+      </c>
+      <c t="s" r="E12">
+        <v>32</v>
+      </c>
+      <c t="s" r="F12">
+        <v>33</v>
+      </c>
+      <c t="s" r="G12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c t="s" r="A14">
+        <v>35</v>
+      </c>
+      <c t="s" r="B14">
+        <v>36</v>
+      </c>
+      <c t="s" r="C14">
+        <v>37</v>
+      </c>
+      <c t="s" r="D14">
+        <v>38</v>
+      </c>
+      <c t="s" r="E14">
+        <v>11</v>
+      </c>
+      <c t="s" r="F14">
+        <v>39</v>
+      </c>
+      <c t="s" r="G14">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Artikkelit.xlsx
+++ b/Artikkelit.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr dateCompatibility="0"/>
+  <workbookPr/>
   <sheets>
     <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId3"/>
   </sheets>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Artikkeli</t>
   </si>
@@ -58,7 +58,7 @@
     <t>A Cognitive Apprenticeship for Science Literacy Based on Journalism</t>
   </si>
   <si>
-    <t>Käy läpi kuinka tieteellistätekstiä kannattaisi kirjoittaa 2/5</t>
+    <t>Käy läpi kuinka tieteellistätekstiä kannattaisi kirjoittaa ja CA:n näkökulma asian opettamiseen 1/5</t>
   </si>
   <si>
     <t>Käy läpi kuinka tieteellisiä julkaisuja pitäisi tehdä, kuinka he julkaisevat tieteellisenlehtensä SciJourn (joka suunnattu nuorille). Kertoo myös kuinka he opettavat kirjoittamista eteenpäin CA:n keinoin.</t>
@@ -134,6 +134,45 @@
   </si>
   <si>
     <t>Ei tuloksia, aikoivat juuri ottaa käyttöön CA:n ohjelmoinnin opetuksessa</t>
+  </si>
+  <si>
+    <t>Teaching and Learning Programming and Software Engineering via Interactive Gaming</t>
+  </si>
+  <si>
+    <t>Käsittelee MOOC sivustoa Pex4Fun (pelimäinen), pari kappaletta CA:ta piilotettuna 2/5</t>
+  </si>
+  <si>
+    <t>Kerrotaan aluksi MOOC merkitys (Massive Open Online Courses). Sen jälkeen selitetään Pex4Fun sivustosta, missä voi oppia ohjelmointia. Kyseinen sivusto on pelimäinen ja samalla opettaa ohjelmointia opiskelijoille. Tehdyistä tehtävistä saa merkintöjä ylös ja voi kilpailla muitten kanssa. Duel haasteita. Pieni ripaus CA:ta miten jollakin yliopistolla professori jeesi vähän tehtävissä, jotta ei mennä liian pahasti harhaan ja masennuta.</t>
+  </si>
+  <si>
+    <t>Käydään läpi sivuston Pex4Fun melko selkeästi.</t>
+  </si>
+  <si>
+    <t>Vain muutama rivi oleellista asiaa CA:n kannalta</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Ei tuloksia</t>
+  </si>
+  <si>
+    <t>The Abstraction Transition Taxonomy: Developing Desired Learning Outcomes through the Lens of Situated Cognition</t>
+  </si>
+  <si>
+    <t>Käsittelee mitä ekspertiksi kehittyminen vaatii. CA ja deliperate practice. Käy läpi ohjelmointiin liittyviä taxonomeja ja kertoo niitten opetuksen tärkeydestä. Kertoo kuinka ohjelmointia opiskelevilla henkilöllä testailtiin clicker kysymyksiä (worked examples), joiden kuatta CA. 5/5</t>
+  </si>
+  <si>
+    <t>Kertoo mitä ekspertiksi kehittyminen vaatii CA:n/situated cognitionin pohjalta. Kertoo lyhyesti liittyviä töitä - taxonomioiden oppiminen (sanastoa opettamiseen), Apprenticeship and Deliberate Practice (Through worked examples), Acculturation (pari programming, coding dojos). Kerrotaan oppimateriaaleista yliopiston kurssilla, jossa ~570 oppilasta. Oppimateriaalit sisältivät worked exampleja (clicker questioneja), jotka pyrkivät kysymysten kautta tuomaan esiin CA:ta - WHY kysymykset tärkeitä, how kysymysten sijaan! WHY kysymykset tuovat esiin CA:n metodeja ajatteluun ja vievät ajattelua syvemmälle (expertise), työläämpiä/hankalampia arvostella. Katsottiin myös läpi yliopiston pitämiä kurssikokeiden kysymysten muodostamisia, todella vähän why kysymyksiä.</t>
+  </si>
+  <si>
+    <t>Käydään worked examples näkökulmasta CA:ta. Kuinka oikein muodostetuilla kysymyksillä WHY kysymykset HOW sijaan, luodaan paremmin ammattitaitoisuutta. Kysymystä joutuu miettimään syvemmin. Uutta näkökulmaa CA:han!</t>
+  </si>
+  <si>
+    <t>USA, yliopisto, CS Principles course (CS0-type course), ~570 oppilasta, clicker questionit (worked examples) (english, CS speak, code)</t>
+  </si>
+  <si>
+    <t>Kurssi oli onnistunut - opiskelijat kehittyivät ja näkivät teknologian mieluisampana. Abstraction Transition (AT) Taxonomy kyseisten 570 oppilaan tekemien kyselyiden perusteella (clicker questions, samalla olivat kurssimateriaaleja). Ei konkreettisia todisteita että toimiiko, mutta monet tekijät tukevat ideaa WHY kysymyksistä CA:n perusteella. </t>
   </si>
 </sst>
 </file>
@@ -351,6 +390,52 @@
         <v>40</v>
       </c>
     </row>
+    <row r="16">
+      <c t="s" r="A16">
+        <v>41</v>
+      </c>
+      <c t="s" r="B16">
+        <v>42</v>
+      </c>
+      <c t="s" r="C16">
+        <v>43</v>
+      </c>
+      <c t="s" r="D16">
+        <v>44</v>
+      </c>
+      <c t="s" r="E16">
+        <v>45</v>
+      </c>
+      <c t="s" r="F16">
+        <v>46</v>
+      </c>
+      <c t="s" r="G16">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18">
+      <c t="s" r="A18">
+        <v>48</v>
+      </c>
+      <c t="s" r="B18">
+        <v>49</v>
+      </c>
+      <c t="s" r="C18">
+        <v>50</v>
+      </c>
+      <c t="s" r="D18">
+        <v>51</v>
+      </c>
+      <c t="s" r="E18">
+        <v>11</v>
+      </c>
+      <c t="s" r="F18">
+        <v>52</v>
+      </c>
+      <c t="s" r="G18">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/Artikkelit.xlsx
+++ b/Artikkelit.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>Artikkeli</t>
   </si>
@@ -173,6 +173,24 @@
   </si>
   <si>
     <t>Kurssi oli onnistunut - opiskelijat kehittyivät ja näkivät teknologian mieluisampana. Abstraction Transition (AT) Taxonomy kyseisten 570 oppilaan tekemien kyselyiden perusteella (clicker questions, samalla olivat kurssimateriaaleja). Ei konkreettisia todisteita että toimiiko, mutta monet tekijät tukevat ideaa WHY kysymyksistä CA:n perusteella. </t>
+  </si>
+  <si>
+    <t>The Game Studies Practicum: Applying Situated Learning to Teach Professional Practices</t>
+  </si>
+  <si>
+    <t>Käsittelee Singapore-Mit GAMBIT kesäohjelmaa, miten sitä on järjestetty ja pyritty opettamaan. Näkemystä Situated learningista ja CA:sta. 3/5</t>
+  </si>
+  <si>
+    <t>Singapore-MIT GAMBIT kesäohjelma 8 viikon mittainen ohjelmointiprojekti oppilailla (ohtuprojekti fiilis). Mutta opettamassa ohjelmointialan ammattilaisia pelientekonäkökulmasta. Ohjaavat oppilaita oikeaan suuntaan coachin. Kertoo situated learningista ja CA:sta. Selittää miten kesäohjelmaa on järjestetty ja miten siinä näkyvät nämä eri näkökulmat.</t>
+  </si>
+  <si>
+    <t>Vähän erilaista näkemystä CA:han, koska yhdistetty scrum ja ei oikein muuta CA yhteyttä. Scrumiin yhdistettyä CA ja kuinka pyritty opettamaan tätä Singapore-MIT GAMBIT kurssia. Samalla tosin epäilyttävää.</t>
+  </si>
+  <si>
+    <t>Ei tuloksia, kerrotaan vain miten kurssia on järjestetty ja vähän omituinen yhteys scrum liitteestä CA:han.</t>
+  </si>
+  <si>
+    <t>Singapore, yliopisto, (yhteistyössä MIT)</t>
   </si>
 </sst>
 </file>
@@ -436,6 +454,29 @@
         <v>53</v>
       </c>
     </row>
+    <row r="20">
+      <c t="s" r="A20">
+        <v>54</v>
+      </c>
+      <c t="s" r="B20">
+        <v>55</v>
+      </c>
+      <c t="s" r="C20">
+        <v>56</v>
+      </c>
+      <c t="s" r="D20">
+        <v>57</v>
+      </c>
+      <c t="s" r="E20">
+        <v>58</v>
+      </c>
+      <c t="s" r="F20">
+        <v>59</v>
+      </c>
+      <c t="s" r="G20">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/Artikkelit.xlsx
+++ b/Artikkelit.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
   <si>
     <t>Artikkeli</t>
   </si>
@@ -191,6 +191,99 @@
   </si>
   <si>
     <t>Singapore, yliopisto, (yhteistyössä MIT)</t>
+  </si>
+  <si>
+    <t>Extreme Apprenticeship Method: Key Practices and Upward Scalability</t>
+  </si>
+  <si>
+    <t>Käsittelee XA:ta ohjelmoinnin opetuksessa. Kertoo miten Helsingin yliopistolla järjestetty ohjelmointikursseja XA:ta käyttäen. Pajaohjausta/Scaffolding. 5/5</t>
+  </si>
+  <si>
+    <t>Pajaohjelmointia ollut useammalla kurssilla käytössä. Paljon tehtäviä. Kertoo kuinka järjestetty, paljonko ohjaajia ja oppilaita. Sisältää tuloksia. Kertoo tosi hyvin scaffolding näkökulmaa pajaohjauksessa ja ripauksen tehtävien suhteen.</t>
+  </si>
+  <si>
+    <t>Scaffolding pajaohjaus/tehtävät. Tuloksia!</t>
+  </si>
+  <si>
+    <t>Helsingin yliopisto, n =192 and 147, 2010, ohjelmoinnin perus- ja jatkokurssit</t>
+  </si>
+  <si>
+    <t>Kurssin läpäisy prosentti kasvoi keskiarvoon verrattuna ~25%.</t>
+  </si>
+  <si>
+    <t>Scaffolding Students' Learning using Test My Code</t>
+  </si>
+  <si>
+    <t>Käsittelee Helsingin yliopiston monilla ohjelmointikursseilla käytössä olevaa Test My Code (TMC). Paljon tehtäviä/palaute/scaffolding. 5/5</t>
+  </si>
+  <si>
+    <t>Helsingin yliopistolla ohjelmointikursseilla käytössä ollut TMC. Kerrotaan kuinka TMC:ta sovelletaan ja kuinka se soveltuu scaffolding näkökulmassa, voi antaa palautetta, paljon tehtäviä ja opettaa testausta. Vie vähemmän aikaa ohjaajilta, koska tehtäviä ei tarvitse tarkistaa. Opiskelijat saavat heti palautetta tehtävää tekiessä/testit.</t>
+  </si>
+  <si>
+    <t>TMC, selitetään scaffoldingia hyvin tehtävien/palautteen kautta.</t>
+  </si>
+  <si>
+    <t>Helsingin yliopisto</t>
+  </si>
+  <si>
+    <t>Ei sinäänsä tuloksia, todetaan et toiminut hyvin.</t>
+  </si>
+  <si>
+    <t>Elementary Students' Perceptions of Social Networks: Development, Experience, and Equity in Collaborative Software Design Activities</t>
+  </si>
+  <si>
+    <t>Kai jonkin näköistä "paremmalta" katsomista ja oppimista, ihan järkyttävän epämääräistä tosin 1/5. Ei oikeastaan -mitään- hyödynnettävää.</t>
+  </si>
+  <si>
+    <t>&lt;-----</t>
+  </si>
+  <si>
+    <t>pskaa -_-</t>
+  </si>
+  <si>
+    <t>Liikaa mutustelua, vähän tietoa :lllll Kannattaako näitä proceedingei ees lukea?</t>
+  </si>
+  <si>
+    <t>Haastateltiin 131  4-5 luokkalaista lasta. 10 viikon mittaisia projekteja.</t>
+  </si>
+  <si>
+    <t>Jotain mutustelua, kuinka "old-timerit" auttoivat uusia neuvomalla heitä. Hyvän oppimisympäristön luominen ei ole pelkästään taitotasojen yhtenäisyyksistä kiinni, vaan voi olla eritasoisia oppilaita</t>
+  </si>
+  <si>
+    <t>Learning Agile Software Engineering Practices using Coding Dojo</t>
+  </si>
+  <si>
+    <t>Pair programming ja TDD. Scaffoldingia. CA:ta vähän suoraan ja paljon epäsuorasti, voi olla kuitenki hyödyllistä! 4/5</t>
+  </si>
+  <si>
+    <t>Kertoo coding dojoista, kuinka niissä voi tehokkaasti oppia Agilen menetelmiä (pariohjelmointia/ryhmässä tehtävän tekoa/ test-driven.development). Kertoo erityyppisistä dojoista ja mitä niissä tehdään. Cognitive apprenticeshippiä epäsuorasti, voi olla oleellista asiaa! Kertoo kuinka ohtu-kurssilla testattu erästä varianttia.</t>
+  </si>
+  <si>
+    <t>Coding dojo, analyysia, CA:ta paljon epäsuorasti (eli ei analysoitu CA:n kannalta suoraan)!</t>
+  </si>
+  <si>
+    <t>73 oppilasta, 15 sessiota, Helsingin yliopisto, Ohtu-kurssi</t>
+  </si>
+  <si>
+    <t>Kyselyn perusteella dojo ei ollut kilailuhenkinen ja ilmapiiri oli rento. Oppilaiden mielestä hyvän ohjelmoinnin hyödyllisyys tuli näkyviin dojossa ja se soveltuu ohjelmointi taitojen kehittämiseen. Melkein puolet oppilaista sai "Ahaa" elämyksiä. 80% oppilaista suosittelisi dojoa muillekkin, 70% osallistuisi dojoihin jatkossakin. Oppilaat kokivat ymmärtäneensä TDD ja pariohjelmoinnin tavoitteet ja oppivat varomaan ylisuunnittelemaan/rakentamaan ratkaisun.</t>
+  </si>
+  <si>
+    <t>Multi-faceted Support for MOOC in Programming</t>
+  </si>
+  <si>
+    <t>XA:ta, Scaffoldingia 4/5</t>
+  </si>
+  <si>
+    <t>Kertoo Helsingin yliopiston MOOC:ista, 3 tärkeää pointtia siinä XA, Scaffolding ja kannustaa sitoutumista kurssiin (parempi ku muut vastaavat ohjelmointikurssit). Miten toiminut, mitä siihen kuuluu (TMC), tehtävien rakenne. Kannustava. Tehtäviä PALJON (Scaffolding).</t>
+  </si>
+  <si>
+    <t>Scaffolding, dataa oppilaitten palautteista (tehtävä kohtaisista)</t>
+  </si>
+  <si>
+    <t>MOOC, Helsingin yliopisto, Etäkurssi (etä palaute)</t>
+  </si>
+  <si>
+    <t>Dataa 7. luvussa paljonko osallistujia/läpäisy prosentti/kuinka moni halusi opiskelemaan. Tehtävien vaikeus/hyödyllisyys kurvi.</t>
   </si>
 </sst>
 </file>
@@ -266,7 +359,7 @@
     <col min="4" customWidth="1" max="4" width="34.43"/>
     <col min="5" customWidth="1" max="5" width="23.29"/>
     <col min="6" customWidth="1" max="6" width="32.14"/>
-    <col min="7" customWidth="1" max="7" width="29.86"/>
+    <col min="7" customWidth="1" max="7" width="47.29"/>
     <col min="8" customWidth="1" max="8" width="35.29"/>
   </cols>
   <sheetData>
@@ -477,6 +570,118 @@
         <v>47</v>
       </c>
     </row>
+    <row r="22">
+      <c t="s" r="A22">
+        <v>60</v>
+      </c>
+      <c t="s" r="B22">
+        <v>61</v>
+      </c>
+      <c t="s" r="C22">
+        <v>62</v>
+      </c>
+      <c t="s" r="D22">
+        <v>63</v>
+      </c>
+      <c t="s" r="E22">
+        <v>11</v>
+      </c>
+      <c t="s" r="F22">
+        <v>64</v>
+      </c>
+      <c t="s" r="G22">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24">
+      <c t="s" r="A24">
+        <v>66</v>
+      </c>
+      <c t="s" r="B24">
+        <v>67</v>
+      </c>
+      <c t="s" r="C24">
+        <v>68</v>
+      </c>
+      <c t="s" r="D24">
+        <v>69</v>
+      </c>
+      <c t="s" r="F24">
+        <v>70</v>
+      </c>
+      <c t="s" r="G24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26">
+      <c t="s" r="A26">
+        <v>72</v>
+      </c>
+      <c t="s" r="B26">
+        <v>73</v>
+      </c>
+      <c t="s" r="C26">
+        <v>74</v>
+      </c>
+      <c t="s" r="D26">
+        <v>75</v>
+      </c>
+      <c t="s" r="E26">
+        <v>76</v>
+      </c>
+      <c t="s" r="F26">
+        <v>77</v>
+      </c>
+      <c t="s" r="G26">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28">
+      <c t="s" r="A28">
+        <v>79</v>
+      </c>
+      <c t="s" r="B28">
+        <v>80</v>
+      </c>
+      <c t="s" r="C28">
+        <v>81</v>
+      </c>
+      <c t="s" r="D28">
+        <v>82</v>
+      </c>
+      <c t="s" r="E28">
+        <v>11</v>
+      </c>
+      <c t="s" r="F28">
+        <v>83</v>
+      </c>
+      <c t="s" r="G28">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30">
+      <c t="s" r="A30">
+        <v>85</v>
+      </c>
+      <c t="s" r="B30">
+        <v>86</v>
+      </c>
+      <c t="s" r="C30">
+        <v>87</v>
+      </c>
+      <c t="s" r="D30">
+        <v>88</v>
+      </c>
+      <c t="s" r="E30">
+        <v>11</v>
+      </c>
+      <c t="s" r="F30">
+        <v>89</v>
+      </c>
+      <c t="s" r="G30">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/Artikkelit.xlsx
+++ b/Artikkelit.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="142">
   <si>
     <t>Artikkeli</t>
   </si>
@@ -284,6 +284,159 @@
   </si>
   <si>
     <t>Dataa 7. luvussa paljonko osallistujia/läpäisy prosentti/kuinka moni halusi opiskelemaan. Tehtävien vaikeus/hyödyllisyys kurvi.</t>
+  </si>
+  <si>
+    <t>A Surrogate Competition Approach to Enhancing Game-Based Learning</t>
+  </si>
+  <si>
+    <t>CA:ta todella epäsuorasti. Tuskin mitään järkevää hyödynnettävää. 1/5</t>
+  </si>
+  <si>
+    <t>Kertoo My-Pet-Arena sivustosta, jossa opiskelijat kilpailevat toisiaan vastaan epäsuorasti. "Lemmikit" elävät onnistumisen/epäonnistumisen mukana. Normaaleissa kilpailutilanteissa lapset voivat menettää motivaatiota häviön myötä, sen takia tämmöinen epäsuora lähestyminen kilpailuun.</t>
+  </si>
+  <si>
+    <t>Näkökulma kilpailutilanteista ja miten niitä voi välttää erilaisessa ympäristössä</t>
+  </si>
+  <si>
+    <t>Ei kauhean oleellista</t>
+  </si>
+  <si>
+    <t>Ei järkeä pureutua</t>
+  </si>
+  <si>
+    <t>Assessing the Effectiveness of Distributed Pair Programming for an Online Informatics Curriculum</t>
+  </si>
+  <si>
+    <t>Pariohjelmointi (scaffolding), ei kovin paljoa hyödynnettävää 2/5</t>
+  </si>
+  <si>
+    <t>Kertoo parilla kurssilla hyödynnetystä työkalusta, joka mahdollisti etänä pariohjelmoinnin. Käytiin läpi miten etänä pariohjelmointi ihan yhtä validi kuin normaali pariohjelmointi. Tosi epäsuorasti scaffoldingia.</t>
+  </si>
+  <si>
+    <t>Pariohjelmointi, Scaffolding sivuttaen</t>
+  </si>
+  <si>
+    <t>Ei suoranaisesti hirveänä CA:n näkökulmaa</t>
+  </si>
+  <si>
+    <t>Online course, Indiana University Bloomington and Indiana University Purdue University Indianapolis, 100 oppilasta pilot study v. 2009, survey</t>
+  </si>
+  <si>
+    <t>Kyselyitä, joista koottu dataa - löytyy artikkelista</t>
+  </si>
+  <si>
+    <t>MOOC as Semester-long Entrance Exam</t>
+  </si>
+  <si>
+    <t>XA, ei oikeastaan muuta. 1/5</t>
+  </si>
+  <si>
+    <t>Kertoo Helsingin yliopiston MOOC:in rakenteesta ja miten se vaikuttaa jatkamiseen opiskeluissa etc, ei kovin oleellista CA:n kannalta tässä.</t>
+  </si>
+  <si>
+    <t>Ei hyödyllistä itselle</t>
+  </si>
+  <si>
+    <t>Contextual Integration: A Framework for presenting Social, Legal, and Ethical Content Across the Computer Security and Information Assurance Curriculum</t>
+  </si>
+  <si>
+    <t>Modeling ja Scaffolding hieman, ei kovin hyvin. 1/5</t>
+  </si>
+  <si>
+    <t>Kertoo "The computer security and information assurance (CSIA)" rajapinnasta ja näiden asioiden opettamisesta. Kerrotaan mitä eettisiä ja moraalisia ongelmia mahdollisesti on. Ei kovin oleellista asiaa, vähän selitetään opettamistapoja, mutta muualla esitetty paremmin, ei mielenkiintoinen näkökulma.</t>
+  </si>
+  <si>
+    <t>Modeling ja Scaffolding epäsuorasti</t>
+  </si>
+  <si>
+    <t>Technical and Human Perspectives on Pair Programming</t>
+  </si>
+  <si>
+    <t>Pariohjelmointi, XP *käytä*. 4/5</t>
+  </si>
+  <si>
+    <t>Kertoo hyvin pariohjelmoinnista, eri näkökulmista. Kertoo myös vähän huonoja puoliakin. Todella monipuoliset näkökulmat. Hyvä artikkeli pariohjelmoinnin suhteen!</t>
+  </si>
+  <si>
+    <t>Pariohjelmointi</t>
+  </si>
+  <si>
+    <t>Ei tutkimusta</t>
+  </si>
+  <si>
+    <t>Management, Structures and Tools to Scale up Personal Advising in Large Programming Courses</t>
+  </si>
+  <si>
+    <t>XA ohjelmoinnin opetuksessa, pajaohjauksesta. 4/5</t>
+  </si>
+  <si>
+    <t>Kertoo hyvin XA:ta ja pajaohjelmoinnin järjestämisestä/hyödyistä.</t>
+  </si>
+  <si>
+    <t>Pajaohjelmointi ja XA (iha hyvää CA kamaa)</t>
+  </si>
+  <si>
+    <t>Helsingin yliopisto, tkt-laitos, 2010 syksy -&gt;</t>
+  </si>
+  <si>
+    <t>Tuloksia lähinnä kurssin läpäisy prosenteista käyttöön oton jälkeen</t>
+  </si>
+  <si>
+    <t>Evaluating an Early Software Engineering Course with Projects and Tools from Open Source Software</t>
+  </si>
+  <si>
+    <t>Roskaa. 0/5</t>
+  </si>
+  <si>
+    <t>Roskaa, ei mitää tärkeää. Älä koske enää tähä.</t>
+  </si>
+  <si>
+    <t>A Snapshot of Studio Based Learning Code Reviews as a Means of Community Building</t>
+  </si>
+  <si>
+    <t>Kerrotaan "Studio Based Learningista" tai oikeastaan suunnitelmasta, mikä aiotaan jossai toteuttaa kokeiluna. Melko turhaa. 2/5</t>
+  </si>
+  <si>
+    <t>Kerrotaan "Studio Based Learningista" tai oikeastaan suunnitelmasta, mikä aiotaan jossai toteuttaa kokeiluna. Sisältää aikataulutetun suunnitelman etc. Keskustelu keinona opetuksessa. Ryhmät keskustelee koodauksen jälkeen keskenään, ei saa puhua omasta työstään keskustelun aikana. Käydään koodia läpi ryhmissä, yksilöistämättä koodia. </t>
+  </si>
+  <si>
+    <t>Reflection, koodin sanallisesti aukomista ja arviointia</t>
+  </si>
+  <si>
+    <t>A Software Craftsman’s Approach to Data Structures</t>
+  </si>
+  <si>
+    <t>Software Craftsman lähestyminen tira kurssiin, worked exampleja, käytänteitä, lisää worked exampleja. Kuinka tehokasta oppilaiden näkökulmasta normaaleihin luentoihin verrattuna. 2/5</t>
+  </si>
+  <si>
+    <t>Software Craftsman lähestyminen tira kurssiin, worked exampleja, käytänteitä, lisää worked exampleja. Kuinka tehokasta oppilaiden näkökulmasta normaaleihin luentoihin verrattuna. Aika paljon esimerkkejä millaisia tehtäviä on ollut, melko vähän hyödynnettävää. Parempiakin "scaffolding" juttuja saatavissa.</t>
+  </si>
+  <si>
+    <t>Worked examples</t>
+  </si>
+  <si>
+    <t>Helsingin yliopisto, tkt-laitos.. Etsi jos haluat lisää, tuskin kauheena tulee käyttöä ylipäätänsä</t>
+  </si>
+  <si>
+    <t>Juu table löytyy. Lyhyesti sanottuna valtaosa tykkää worked exampleista parempina.</t>
+  </si>
+  <si>
+    <t>COGNITIVE APPRENTICESHIP MAKING THINKING VISIBLE</t>
+  </si>
+  <si>
+    <t>GODLIKE TEOS 10/5</t>
+  </si>
+  <si>
+    <t>KAIKEN PAHAN ALKU - ei tartte selittää</t>
+  </si>
+  <si>
+    <t>Three Years of Design-based Research to Reform a Software Engineering Curriculum</t>
+  </si>
+  <si>
+    <t>Kertoo suunnitelmasta muuttaa kurssi curriculumia tkt laitoksella. 1/5</t>
+  </si>
+  <si>
+    <t>Kertoo suunnitelmasta muuttaa kurssi curriculumia tkt laitoksella. Selitetään vähän kurssien toteutuksesta ja miten niitä pitäisi toteuttaa jatkossa ja miten muutoksia tehdään. Vähän mainintaa XA:sta ja motivaation kasvusta kun järkevämpiä juttuja.</t>
   </si>
 </sst>
 </file>
@@ -682,6 +835,259 @@
         <v>90</v>
       </c>
     </row>
+    <row r="32">
+      <c t="s" r="A32">
+        <v>91</v>
+      </c>
+      <c t="s" r="B32">
+        <v>92</v>
+      </c>
+      <c t="s" r="C32">
+        <v>93</v>
+      </c>
+      <c t="s" r="D32">
+        <v>94</v>
+      </c>
+      <c t="s" r="E32">
+        <v>95</v>
+      </c>
+      <c t="s" r="F32">
+        <v>96</v>
+      </c>
+      <c t="s" r="G32">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34">
+      <c t="s" r="A34">
+        <v>97</v>
+      </c>
+      <c t="s" r="B34">
+        <v>98</v>
+      </c>
+      <c t="s" r="C34">
+        <v>99</v>
+      </c>
+      <c t="s" r="D34">
+        <v>100</v>
+      </c>
+      <c t="s" r="E34">
+        <v>101</v>
+      </c>
+      <c t="s" r="F34">
+        <v>102</v>
+      </c>
+      <c t="s" r="G34">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36">
+      <c t="s" r="A36">
+        <v>104</v>
+      </c>
+      <c t="s" r="B36">
+        <v>105</v>
+      </c>
+      <c t="s" r="C36">
+        <v>106</v>
+      </c>
+      <c t="s" r="D36">
+        <v>11</v>
+      </c>
+      <c t="s" r="E36">
+        <v>11</v>
+      </c>
+      <c t="s" r="F36">
+        <v>107</v>
+      </c>
+      <c t="s" r="G36">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38">
+      <c t="s" r="A38">
+        <v>108</v>
+      </c>
+      <c t="s" r="B38">
+        <v>109</v>
+      </c>
+      <c t="s" r="C38">
+        <v>110</v>
+      </c>
+      <c t="s" r="D38">
+        <v>111</v>
+      </c>
+      <c t="s" r="E38">
+        <v>11</v>
+      </c>
+      <c t="s" r="F38">
+        <v>107</v>
+      </c>
+      <c t="s" r="G38">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40">
+      <c t="s" r="A40">
+        <v>112</v>
+      </c>
+      <c t="s" r="B40">
+        <v>113</v>
+      </c>
+      <c t="s" r="C40">
+        <v>114</v>
+      </c>
+      <c t="s" r="D40">
+        <v>115</v>
+      </c>
+      <c t="s" r="E40">
+        <v>11</v>
+      </c>
+      <c t="s" r="F40">
+        <v>116</v>
+      </c>
+      <c t="s" r="G40">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42">
+      <c t="s" r="A42">
+        <v>117</v>
+      </c>
+      <c t="s" r="B42">
+        <v>118</v>
+      </c>
+      <c t="s" r="C42">
+        <v>119</v>
+      </c>
+      <c t="s" r="D42">
+        <v>120</v>
+      </c>
+      <c t="s" r="E42">
+        <v>11</v>
+      </c>
+      <c t="s" r="F42">
+        <v>121</v>
+      </c>
+      <c t="s" r="G42">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44">
+      <c t="s" r="A44">
+        <v>123</v>
+      </c>
+      <c t="s" r="B44">
+        <v>124</v>
+      </c>
+      <c t="s" r="C44">
+        <v>125</v>
+      </c>
+      <c t="s" r="D44">
+        <v>11</v>
+      </c>
+      <c t="s" r="E44">
+        <v>11</v>
+      </c>
+      <c t="s" r="F44">
+        <v>11</v>
+      </c>
+      <c t="s" r="G44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c t="s" r="A46">
+        <v>126</v>
+      </c>
+      <c t="s" r="B46">
+        <v>127</v>
+      </c>
+      <c t="s" r="C46">
+        <v>128</v>
+      </c>
+      <c t="s" r="D46">
+        <v>129</v>
+      </c>
+      <c t="s" r="E46">
+        <v>11</v>
+      </c>
+      <c t="s" r="F46">
+        <v>11</v>
+      </c>
+      <c t="s" r="G46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c t="s" r="A48">
+        <v>130</v>
+      </c>
+      <c t="s" r="B48">
+        <v>131</v>
+      </c>
+      <c t="s" r="C48">
+        <v>132</v>
+      </c>
+      <c t="s" r="D48">
+        <v>133</v>
+      </c>
+      <c t="s" r="E48">
+        <v>11</v>
+      </c>
+      <c t="s" r="F48">
+        <v>134</v>
+      </c>
+      <c t="s" r="G48">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50">
+      <c t="s" r="A50">
+        <v>136</v>
+      </c>
+      <c t="s" r="B50">
+        <v>137</v>
+      </c>
+      <c t="s" r="C50">
+        <v>138</v>
+      </c>
+      <c t="s" r="D50">
+        <v>11</v>
+      </c>
+      <c t="s" r="E50">
+        <v>11</v>
+      </c>
+      <c t="s" r="F50">
+        <v>11</v>
+      </c>
+      <c t="s" r="G50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c t="s" r="A52">
+        <v>139</v>
+      </c>
+      <c t="s" r="B52">
+        <v>140</v>
+      </c>
+      <c t="s" r="C52">
+        <v>141</v>
+      </c>
+      <c t="s" r="D52">
+        <v>11</v>
+      </c>
+      <c t="s" r="E52">
+        <v>11</v>
+      </c>
+      <c t="s" r="F52">
+        <v>11</v>
+      </c>
+      <c t="s" r="G52">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>